--- a/Projects/ALTRIAUS/Data/KENGINE_ALTRIA_V1.xlsx
+++ b/Projects/ALTRIAUS/Data/KENGINE_ALTRIA_V1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
   <si>
     <t xml:space="preserve">KPI Level 1 Name</t>
   </si>
@@ -50,31 +50,34 @@
     <t xml:space="preserve">Category Space - Cigarettes</t>
   </si>
   <si>
+    <t xml:space="preserve">category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cigarettes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category_space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category Space - Vapor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vapor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category Space - Smokeless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smokeless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category Space - Cigars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cigars</t>
+  </si>
+  <si>
     <t xml:space="preserve">Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cigarettes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category Space - Vapor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vapor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category Space - Smokeless</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smokeless</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category Space - Cigars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cigars</t>
   </si>
   <si>
     <t xml:space="preserve">Low</t>
@@ -210,15 +213,15 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -330,27 +333,27 @@
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="C5 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/ALTRIAUS/Data/KENGINE_ALTRIA_V1.xlsx
+++ b/Projects/ALTRIAUS/Data/KENGINE_ALTRIA_V1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t xml:space="preserve">KPI Level 1 Name</t>
   </si>
@@ -44,6 +44,9 @@
     <t xml:space="preserve">KPI Type</t>
   </si>
   <si>
+    <t xml:space="preserve">scene_type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Altria Score</t>
   </si>
   <si>
@@ -57,6 +60,9 @@
   </si>
   <si>
     <t xml:space="preserve">category_space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merchandising Space</t>
   </si>
   <si>
     <t xml:space="preserve">Category Space - Vapor</t>
@@ -211,17 +217,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.6173469387755"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -246,73 +255,88 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -334,31 +358,28 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="C5 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -372,7 +393,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>6</v>
@@ -386,7 +407,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>10</v>
@@ -400,7 +421,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>15</v>
@@ -414,7 +435,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -428,7 +449,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>5</v>
@@ -442,7 +463,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>9</v>
@@ -456,7 +477,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>13</v>
@@ -470,7 +491,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -484,7 +505,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>6</v>
@@ -498,7 +519,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>10</v>
@@ -512,7 +533,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>15</v>
@@ -526,7 +547,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
@@ -540,7 +561,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>6</v>
@@ -554,7 +575,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>10</v>
@@ -568,7 +589,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>15</v>
